--- a/Internacional/Inputs/stock.xlsx
+++ b/Internacional/Inputs/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Proyecciones/Proyecciones-S-OP/Internacional/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005F2342-599E-084C-A669-E1FE34F9FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E6917-4FA1-FA42-8DAB-6D69ACB48394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="0" windowWidth="17800" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0ANALYSIS_PATTERN (4)" sheetId="1" r:id="rId1"/>
@@ -2055,8 +2055,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>777009</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280554</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2410,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V210"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A172" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2419,17 +2419,15 @@
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Internacional/Inputs/stock.xlsx
+++ b/Internacional/Inputs/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsilva\Documents\Tiara Silva\Proyecciones-S-OP\Internacional\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E2912-137F-4AE0-B283-E4E3D2FF8681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538774AA-297E-498D-897A-ADDD5EDD8188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2466,7 +2466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F6E000-D3DC-453B-B54C-2BE66C2582AA}">
   <dimension ref="A1:AF447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C470" sqref="C470"/>
     </sheetView>
   </sheetViews>

--- a/Internacional/Inputs/stock.xlsx
+++ b/Internacional/Inputs/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsilva\Documents\Tiara Silva\Proyecciones-S-OP\Internacional\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847BDE3E-46E5-4906-A49A-1F315D7D31EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57832075-A14D-482C-B1B3-09D0723AF606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56969,7 +56969,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5958C1-6693-435B-A436-5C30AF7897C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FB1BC08-3119-497D-9D06-97BADCA7DCC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.sap.com/cof/excel/application"/>
   </ds:schemaRefs>

--- a/Internacional/Inputs/stock.xlsx
+++ b/Internacional/Inputs/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsilva\Documents\Tiara Silva\Proyecciones-S-OP\Internacional\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63323F8B-B354-4B60-8863-714964F63E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C934E-B68B-4B4A-A4E4-12F3382599FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64231,7 +64231,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F3F315-DB1D-4D29-B030-DB6868060C7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E6814C-2EE4-483A-B6A6-1DDBEAAE63EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.sap.com/cof/excel/application"/>
   </ds:schemaRefs>
